--- a/data/controle_mensais_2023.xlsx
+++ b/data/controle_mensais_2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Braga</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Feitosa</t>
   </si>
   <si>
-    <t>Guiler</t>
-  </si>
-  <si>
     <t>Hazin</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Paulo André</t>
   </si>
   <si>
-    <t>Paulo Rafael</t>
-  </si>
-  <si>
     <t>Pentelho</t>
   </si>
   <si>
@@ -98,10 +92,28 @@
     <t>Agosto</t>
   </si>
   <si>
-    <t>Belian</t>
-  </si>
-  <si>
     <t>Setembro</t>
+  </si>
+  <si>
+    <t>Guilé</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Emano</t>
+  </si>
+  <si>
+    <t>Peu</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>GuilÉ</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,51 +457,51 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>90</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C40" si="0">IF(B2=0,"PENDENTE","OK")</f>
+        <f>IF(B2=0,"PENDENTE","OK")</f>
         <v>OK</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>90</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C3:C39" si="0">IF(B3=0,"PENDENTE","OK")</f>
         <v>OK</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>90</v>
@@ -499,12 +511,12 @@
         <v>OK</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
         <v>90</v>
@@ -514,12 +526,12 @@
         <v>OK</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>90</v>
@@ -529,12 +541,12 @@
         <v>OK</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>90</v>
@@ -544,27 +556,27 @@
         <v>OK</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>90</v>
@@ -574,12 +586,12 @@
         <v>OK</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>90</v>
@@ -589,12 +601,12 @@
         <v>OK</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
         <v>90</v>
@@ -604,12 +616,12 @@
         <v>OK</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>90</v>
@@ -619,12 +631,12 @@
         <v>OK</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>90</v>
@@ -634,12 +646,12 @@
         <v>OK</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>90</v>
@@ -649,12 +661,12 @@
         <v>OK</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>90</v>
@@ -664,12 +676,12 @@
         <v>OK</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
         <v>90</v>
@@ -679,12 +691,12 @@
         <v>OK</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2">
         <v>90</v>
@@ -694,27 +706,27 @@
         <v>OK</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>PENDENTE</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -724,12 +736,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -739,42 +751,42 @@
         <v>PENDENTE</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -784,12 +796,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -799,12 +811,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -814,27 +826,27 @@
         <v>PENDENTE</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>PENDENTE</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -844,12 +856,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -859,12 +871,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -874,12 +886,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
@@ -889,12 +901,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -904,12 +916,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -919,12 +931,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
@@ -934,12 +946,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
         <v>0</v>
@@ -949,27 +961,27 @@
         <v>PENDENTE</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>PENDENTE</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -979,12 +991,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -994,12 +1006,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -1009,12 +1021,12 @@
         <v>PENDENTE</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -1024,22 +1036,7 @@
         <v>PENDENTE</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PENDENTE</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/controle_mensais_2023.xlsx
+++ b/data/controle_mensais_2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Braga</t>
   </si>
@@ -95,25 +95,16 @@
     <t>Setembro</t>
   </si>
   <si>
-    <t>Guilé</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>Emano</t>
-  </si>
-  <si>
-    <t>Peu</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
     <t>GuilÉ</t>
+  </si>
+  <si>
+    <t>Guiler</t>
+  </si>
+  <si>
+    <t>Paulo Rafael</t>
   </si>
 </sst>
 </file>
@@ -442,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +462,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>90</v>
@@ -486,7 +477,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>90</v>
@@ -501,7 +492,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>90</v>
@@ -516,7 +507,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>90</v>
@@ -531,7 +522,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
         <v>90</v>
@@ -546,7 +537,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
         <v>90</v>
@@ -561,14 +552,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OK</v>
+        <v>PENDENTE</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -576,7 +567,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>90</v>
@@ -591,7 +582,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>90</v>
@@ -606,7 +597,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>90</v>
@@ -621,7 +612,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>90</v>
@@ -636,7 +627,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>90</v>
@@ -651,7 +642,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
         <v>90</v>
@@ -666,7 +657,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2">
         <v>90</v>
@@ -681,7 +672,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>90</v>
@@ -696,7 +687,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>90</v>
@@ -711,14 +702,14 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>21</v>
@@ -756,7 +747,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>90</v>
@@ -771,7 +762,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>90</v>

--- a/data/controle_mensais_2023.xlsx
+++ b/data/controle_mensais_2023.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="controle_mensais" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>Braga</t>
   </si>
@@ -93,12 +96,6 @@
   </si>
   <si>
     <t>Setembro</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>GuilÉ</t>
   </si>
   <si>
     <t>Guiler</t>
@@ -166,6 +163,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Geral"/>
+      <sheetName val="RECEITAS"/>
+      <sheetName val="DESPESAS"/>
+      <sheetName val="DRE"/>
+      <sheetName val="Dados"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,7 +452,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +540,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <v>90</v>
@@ -657,7 +675,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>90</v>
@@ -747,7 +765,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>90</v>
@@ -762,7 +780,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>90</v>
@@ -780,11 +798,11 @@
         <v>0</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -795,11 +813,11 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
@@ -810,11 +828,11 @@
         <v>2</v>
       </c>
       <c r="B25" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>22</v>
@@ -900,11 +918,11 @@
         <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
@@ -915,11 +933,11 @@
         <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>22</v>
@@ -960,11 +978,11 @@
         <v>12</v>
       </c>
       <c r="B35" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -990,11 +1008,11 @@
         <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PENDENTE</v>
+        <v>OK</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>22</v>
